--- a/210311-hagaromo-MC.xlsx - Raw_data.xlsx
+++ b/210311-hagaromo-MC.xlsx - Raw_data.xlsx
@@ -1,40 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goocam21\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\hagaromo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029F784B-0398-4EC5-B8FE-00710E77C318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Combfull" sheetId="1" r:id="rId1"/>
     <sheet name="CGfull" sheetId="3" r:id="rId2"/>
     <sheet name="TBfull" sheetId="2" r:id="rId3"/>
+    <sheet name="CombSmall" sheetId="5" r:id="rId4"/>
+    <sheet name="CGSmall" sheetId="4" r:id="rId5"/>
+    <sheet name="TBSmall" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="206">
   <si>
     <t>image_name</t>
   </si>
@@ -397,17 +387,272 @@
   </si>
   <si>
     <t>58-255</t>
+  </si>
+  <si>
+    <t>date_imaged</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>SL_mm</t>
+  </si>
+  <si>
+    <t>image_size_dim1_um</t>
+  </si>
+  <si>
+    <t>image_size_dim2_um</t>
+  </si>
+  <si>
+    <t>number of scales</t>
+  </si>
+  <si>
+    <t>Area of scale (um2)</t>
+  </si>
+  <si>
+    <t>Perimeter (um)</t>
+  </si>
+  <si>
+    <t>Merkel cells in posterior half</t>
+  </si>
+  <si>
+    <t>roi</t>
+  </si>
+  <si>
+    <t>22.03.08</t>
+  </si>
+  <si>
+    <t>mut</t>
+  </si>
+  <si>
+    <t>300x300um</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop1_MAX_22.03.08_Hagoromo_Mut_R_SL30.77_ - Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop_PWS_MAX_22.03.08_Hagoromo_Mut_R_SL31.47_ - Stitched - Denoise_ai-1.tif</t>
+  </si>
+  <si>
+    <t>985-65528</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop2_MAX_22.03.08_Hagoromo_Mut_R_SL32.06_ - Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop_MAX_22.03.08_Hagoromo_Het_R_SL29.37_ - Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>sib</t>
+  </si>
+  <si>
+    <t>985-65526</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop_C1-MAX_22.03.10_atoh1a_harogromo_Mut_SL28.88_ - Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>22.03.10</t>
+  </si>
+  <si>
+    <t>985-65518</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop1_C1-MAX_22.03.10_atoh1a_harogromo_Mut_SL30.15_ - Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop_C1-MAX_22.03.10_atoh1a_harogromo_Mut_SL33.8_ - Stitched _not nicely- Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>985-65520</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop_MAX_22.03.10_atoh1a_harogromo_Mut_SL34_ - Stitched_looksstrange_MC - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>985-65527</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop2_C1-MAX_22.03.10_atoh1a_harogromo_Mut_SL34.4 - Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop_C1-MAX_22.03.10_atoh1a_harogromo_Sib_SL27_ - Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>985-65522</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop_C1-MAX_22.03.10_atoh1a_harogromo_Sib_SL28.29_ - Stitched - Denoise_ai-1.tif</t>
+  </si>
+  <si>
+    <t>985-65523</t>
+  </si>
+  <si>
+    <t>58-255_ScaleCrop_C1-MAX_22.03.10_atoh1a_harogromo_Sib_SL29.13_ - Stitched - Denoise_ai-1.tif</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop1_C1-MAX_22.03.10_atoh1a_harogromo_Sib_SL30.85_ - Stitched - Denoise_ai-1.tif</t>
+  </si>
+  <si>
+    <t>985-65535_ScaleCrop1_C1-MAX_22.03.10_atoh1a_harogromo_Sib_SL32.4_ - Stitched - Denoise_ai-1.tif</t>
+  </si>
+  <si>
+    <t>MC_per_scale</t>
+  </si>
+  <si>
+    <t>area_mm2</t>
+  </si>
+  <si>
+    <t>scale_density</t>
+  </si>
+  <si>
+    <t>210305-atoh1anlseos.ARS-hag.sibs-32.4mm</t>
+  </si>
+  <si>
+    <t>210305-atoh1anlseos.ARS-hag.sibs-32.0mm</t>
+  </si>
+  <si>
+    <t>210305-atoh1anlseos.ARS-hag.sibs-30.5mm-sc (formerly operc0007…misnamed while imaging)</t>
+  </si>
+  <si>
+    <t>210305-atoh1anlseos.ARS-hag.sibs-30.5mm</t>
+  </si>
+  <si>
+    <t>210305-atoh1anlseos.ARS-hag.sibs-32.5mm</t>
+  </si>
+  <si>
+    <t>part of scale = low density</t>
+  </si>
+  <si>
+    <t>210309-atoh1anlseos.ARS-hag.mut-30</t>
+  </si>
+  <si>
+    <t>second scale: 123</t>
+  </si>
+  <si>
+    <t>210311-atoh1anlseos.ARS-hag.mut-f2.length-tile2.nd2</t>
+  </si>
+  <si>
+    <t>210311-atoh1anlseos.ARS-hag.sibs-25.84m</t>
+  </si>
+  <si>
+    <t>210311-atoh1anlseos.ARS-hag.sibs-27.71mm</t>
+  </si>
+  <si>
+    <t>210315-atoh1anlseos.ARS-hag.mut-f.30mm</t>
+  </si>
+  <si>
+    <t>210318-atoh1anlseos.krt4rfp-hag.sibs-f28mm</t>
+  </si>
+  <si>
+    <t>210318-atoh1anlseos.krt4rfp-hag.sibs-f30.71</t>
+  </si>
+  <si>
+    <t>210318-atoh1anlseos.krt4rfp-hag.sibs-m26.9</t>
+  </si>
+  <si>
+    <t>210319-atoh1anlseos.ARS-hag.mut-f25.76</t>
+  </si>
+  <si>
+    <t>210319-atoh1anlseos.ARS-hag.mut-f.32.18</t>
+  </si>
+  <si>
+    <t>210319-atoh1anlseos.krt4rfp-hag.sibs-26.76-sc-tile4-MaxIP.nd2</t>
+  </si>
+  <si>
+    <t>Merkel cells in anterior half</t>
+  </si>
+  <si>
+    <t>Avg of 2</t>
+  </si>
+  <si>
+    <t>46-255_Scalecrop1_C1-MAX_22.03.11_atoh1a_harogromo_Sib_MCARStoday_SL31.62- Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>22.03.11</t>
+  </si>
+  <si>
+    <t>Avg of 3</t>
+  </si>
+  <si>
+    <t>46-255_Scalecrop1_C1-MAX_22.03.11_atoh1a_harogromo_Mut_MCkrt4_SL31.68_001 - Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>Avg of 4</t>
+  </si>
+  <si>
+    <t>46-255_Scalecrop_C1-MAX_22.03.11_atoh1a_harogromo_Mut_MCkrt4_SL27.57_ - Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>46-255</t>
+  </si>
+  <si>
+    <t>46-255_ScaleCrop_C1-MAX_22.03.11_atoh1a_harogromo_Mut_MCARStoday_SL32.42_ - Stitched - Denoise_ai.nd2-1.tif</t>
+  </si>
+  <si>
+    <t>22.03.10-atoh1anlseos-hag.mut-30.15</t>
+  </si>
+  <si>
+    <t>22.03.08-atoh1anlseos-hag.mut-30.77</t>
+  </si>
+  <si>
+    <t>22.03.10-atoh1anlseos-hag.sibs-30.85</t>
+  </si>
+  <si>
+    <t>22.03.11-atoh1anlseos-hag.sibs-31.62</t>
+  </si>
+  <si>
+    <t>22.03.08-atoh1anlseos-hag.mut-32.06</t>
+  </si>
+  <si>
+    <t>22.03.10-atoh1anlseos-hag.sibs-32.4</t>
+  </si>
+  <si>
+    <t>22.03.10-atoh1anlseos-hag.mut-34.4</t>
+  </si>
+  <si>
+    <t>22.03.11-atoh1anlseos-hag.mut-31.68</t>
+  </si>
+  <si>
+    <t>22.03.10-atoh1anlseos-hag.sibs-27.0</t>
+  </si>
+  <si>
+    <t>22.03.11-atoh1anlseos-hag.mut-27.57</t>
+  </si>
+  <si>
+    <t>22.03.10-atoh1anlseos-hag.sibs-28.29</t>
+  </si>
+  <si>
+    <t>22.03.10-atoh1anlseos-hag.mut-28.88</t>
+  </si>
+  <si>
+    <t>22.03.10-atoh1anlseos-hag.sibs-29.13</t>
+  </si>
+  <si>
+    <t>22.03.08-atoh1anlseos-hag.sibs-29.37</t>
+  </si>
+  <si>
+    <t>22.03.08-atoh1anlseos-hag.mut-31.47</t>
+  </si>
+  <si>
+    <t>22.03.11-atoh1anlseos-hag.mut-32.42</t>
+  </si>
+  <si>
+    <t>22.03.10-atoh1anlseos-hag.mut-33.8</t>
+  </si>
+  <si>
+    <t>22.03.10-atoh1anlseos-hag.mut-34.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,8 +793,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,8 +989,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EAADB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -845,6 +1111,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -890,10 +1171,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1248,22 +1551,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" customWidth="1"/>
+    <col min="2" max="2" width="44.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1333,7 +1636,7 @@
         <v>904.93104400000004</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1368,7 +1671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1403,7 +1706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1438,7 +1741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1473,7 +1776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1508,7 +1811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1546,7 +1849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1584,7 +1887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1622,7 +1925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1657,7 +1960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1695,7 +1998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1730,7 +2033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1765,7 +2068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1803,7 +2106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1838,7 +2141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1876,7 +2179,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1911,7 +2214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1946,7 +2249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1981,7 +2284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -2016,7 +2319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2052,7 +2355,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -2091,7 +2394,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -2127,7 +2430,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -2163,7 +2466,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -2202,7 +2505,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -2238,7 +2541,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2274,7 +2577,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -2313,7 +2616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -2349,7 +2652,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -2388,7 +2691,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2424,7 +2727,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2460,7 +2763,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2496,7 +2799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -2532,7 +2835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -2568,7 +2871,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -2604,7 +2907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2640,7 +2943,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -2676,7 +2979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -2712,7 +3015,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -2749,7 +3052,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L36">
+  <sortState ref="A2:L36">
     <sortCondition ref="B1:B36"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2759,19 +3062,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFD6160-CEFC-4344-A2E9-3B59FCB17AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -2845,7 +3148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -2884,7 +3187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2920,7 +3223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -2956,7 +3259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2995,7 +3298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -3031,7 +3334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -3067,7 +3370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -3102,7 +3405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -3138,7 +3441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -3177,7 +3480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -3213,7 +3516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -3249,7 +3552,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -3285,7 +3588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3321,7 +3624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -3357,7 +3660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -3393,7 +3696,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3426,7 +3729,7 @@
         <v>610.93359570562598</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -3459,7 +3762,7 @@
         <v>749.82408838492609</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -3492,7 +3795,7 @@
         <v>915.16668673276365</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -3531,16 +3834,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB1CB58-3D1E-4480-9733-E403E6E56C1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3578,7 +3881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3610,7 +3913,7 @@
         <v>904.93104400000004</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3645,7 +3948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3680,7 +3983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3715,7 +4018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3750,7 +4053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3785,7 +4088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3823,7 +4126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3861,7 +4164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3899,7 +4202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -3934,7 +4237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3972,7 +4275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -4007,7 +4310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -4042,7 +4345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -4080,7 +4383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -4115,7 +4418,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -4153,7 +4456,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -4188,7 +4491,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -4223,7 +4526,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -4258,7 +4561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -4292,6 +4595,3785 @@
       <c r="K21" t="s">
         <v>71</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.90625" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="9">
+        <v>32.4</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2.2853880630000001</v>
+      </c>
+      <c r="G2" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1050</v>
+      </c>
+      <c r="I2" s="9">
+        <v>4.594405726E-4</v>
+      </c>
+      <c r="J2" s="9">
+        <v>459.4405726</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="9">
+        <v>81</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O2" s="9">
+        <v>900</v>
+      </c>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="9">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.2853880630000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1859</v>
+      </c>
+      <c r="I3" s="9">
+        <v>8.1342859470000001E-4</v>
+      </c>
+      <c r="J3" s="9">
+        <v>813.42859469999996</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="9">
+        <v>120</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1333.333333</v>
+      </c>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="9">
+        <v>30.5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G4" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="H4" s="9">
+        <v>371</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5.8626442500000001E-4</v>
+      </c>
+      <c r="J4" s="9">
+        <v>586.26442499999996</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="9">
+        <v>59</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O4" s="9">
+        <v>655.55555560000005</v>
+      </c>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.2853880630000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>853</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3.7324076989999998E-4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>373.24076989999998</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="9">
+        <v>42</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O5" s="9">
+        <v>466.66666670000001</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G6" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H6" s="7">
+        <v>392</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6.1944920379999999E-4</v>
+      </c>
+      <c r="J6" s="7">
+        <v>619.44920379999996</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="7">
+        <v>72</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O6" s="9">
+        <v>800</v>
+      </c>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="7">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2672527</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2.6725270000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3368194.1179999998</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2444</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9.1449029329999996E-4</v>
+      </c>
+      <c r="J7" s="7">
+        <v>914.49029329999996</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="7">
+        <v>62</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O7" s="9">
+        <v>688.88888889999998</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2168121</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.1681210000000002</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1962</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9.0493104400000003E-4</v>
+      </c>
+      <c r="J8" s="7">
+        <v>904.93104400000004</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7">
+        <v>156</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1733.333333</v>
+      </c>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7">
+        <v>27.13</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G9" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H9" s="7">
+        <v>481</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7.6008945670000001E-4</v>
+      </c>
+      <c r="J9" s="7">
+        <v>760.08945670000003</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="7">
+        <v>195</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2166.666667</v>
+      </c>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7">
+        <v>30.98</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G10" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>236.5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3.7372381809999998E-4</v>
+      </c>
+      <c r="J10" s="7">
+        <v>373.72381810000002</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="7">
+        <v>68</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O10" s="9">
+        <v>755.55555560000005</v>
+      </c>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="9">
+        <v>25.84</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2.2853880630000001</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1159</v>
+      </c>
+      <c r="I11" s="9">
+        <v>5.0713487959999995E-4</v>
+      </c>
+      <c r="J11" s="9">
+        <v>507.13487959999998</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="9">
+        <v>122</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1355.555556</v>
+      </c>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="9">
+        <v>26.62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G12" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="H12" s="9">
+        <v>493.5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>7.7984230120000005E-4</v>
+      </c>
+      <c r="J12" s="9">
+        <v>779.84230119999995</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="9">
+        <v>146</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1622.2222220000001</v>
+      </c>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="9">
+        <v>27.71</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1909554.51</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.90955451</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H13" s="9">
+        <v>805</v>
+      </c>
+      <c r="I13" s="9">
+        <v>4.2156429460000003E-4</v>
+      </c>
+      <c r="J13" s="9">
+        <v>421.56429459999998</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="9">
+        <v>77</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O13" s="9">
+        <v>855.55555560000005</v>
+      </c>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="7">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G14" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H14" s="7">
+        <v>358</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5.6572146669999998E-4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>565.72146669999995</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="7">
+        <v>71</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O14" s="9">
+        <v>788.88888889999998</v>
+      </c>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1202597.125</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.202597125</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1202597.125</v>
+      </c>
+      <c r="H15" s="7">
+        <v>963</v>
+      </c>
+      <c r="I15" s="7">
+        <v>8.0076692349999995E-4</v>
+      </c>
+      <c r="J15" s="7">
+        <v>800.76692349999996</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="7">
+        <v>135</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1500</v>
+      </c>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="9">
+        <v>28</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2172626.12</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2.1726261199999999</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2285388.1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>800</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3.6821797940000001E-4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>368.21797939999999</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="9">
+        <v>90</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="9">
+        <v>30.71</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G17" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="H17" s="9">
+        <v>427.25</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6.7515222529999995E-4</v>
+      </c>
+      <c r="J17" s="9">
+        <v>675.15222530000005</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="9">
+        <v>98</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1088.8888890000001</v>
+      </c>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="9">
+        <v>26.9</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G18" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="H18" s="9">
+        <v>356.25</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5.6295606850000003E-4</v>
+      </c>
+      <c r="J18" s="9">
+        <v>562.95606850000001</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>60</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O18" s="9">
+        <v>666.66666669999995</v>
+      </c>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="7">
+        <v>25.76</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G19" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H19" s="7">
+        <v>692.75</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1.0947026429999999E-3</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1094.7026430000001</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>65</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O19" s="9">
+        <v>722.22222220000003</v>
+      </c>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="7">
+        <v>32.18</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G20" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H20" s="7">
+        <v>413</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6.5263398259999997E-4</v>
+      </c>
+      <c r="J20" s="7">
+        <v>652.63398259999997</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>77</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O20" s="9">
+        <v>855.55555560000005</v>
+      </c>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="9">
+        <v>26.76</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G21" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="H21" s="9">
+        <v>313</v>
+      </c>
+      <c r="I21" s="9">
+        <v>4.9461122650000001E-4</v>
+      </c>
+      <c r="J21" s="9">
+        <v>494.61122649999999</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>47</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O21" s="9">
+        <v>522.22222220000003</v>
+      </c>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="12">
+        <v>30.15</v>
+      </c>
+      <c r="D22" s="12">
+        <v>300.64</v>
+      </c>
+      <c r="E22" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F22" s="12">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G22" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12">
+        <v>1172.757957</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12">
+        <v>1172.757957</v>
+      </c>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="11">
+        <v>30.77</v>
+      </c>
+      <c r="D23" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="E23" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F23" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G23" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="J23" s="11">
+        <v>979.14225629999999</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" s="11">
+        <v>979.14225629999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="11">
+        <v>30.85</v>
+      </c>
+      <c r="D24" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="E24" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F24" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G24" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1344.2461490000001</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" s="11">
+        <v>1344.2461490000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="11">
+        <v>31.62</v>
+      </c>
+      <c r="D25" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="E25" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F25" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G25" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1488.074955</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" s="11">
+        <v>1488.074955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="12">
+        <v>32.06</v>
+      </c>
+      <c r="D26" s="12">
+        <v>300.64</v>
+      </c>
+      <c r="E26" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F26" s="12">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12">
+        <v>757.86717020000003</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12">
+        <v>757.86717020000003</v>
+      </c>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="12">
+        <v>32.4</v>
+      </c>
+      <c r="D27" s="12">
+        <v>300.64</v>
+      </c>
+      <c r="E27" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F27" s="12">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12">
+        <v>564.2514698</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12">
+        <v>564.2514698</v>
+      </c>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="11">
+        <v>34.4</v>
+      </c>
+      <c r="D28" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="E28" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F28" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G28" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1357.1538619999999</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28" s="11">
+        <v>1357.1538619999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="11">
+        <v>31.68</v>
+      </c>
+      <c r="D29" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="E29" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F29" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G29" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1296.6720049999999</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="O29" s="11">
+        <v>1296.6720049999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="12">
+        <v>27</v>
+      </c>
+      <c r="D30" s="12">
+        <v>300.64</v>
+      </c>
+      <c r="E30" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F30" s="12">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G30" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H30" s="12">
+        <v>65</v>
+      </c>
+      <c r="I30" s="12">
+        <v>7.1914403009999998E-4</v>
+      </c>
+      <c r="J30" s="12">
+        <v>719.14403010000001</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12">
+        <v>719.14403010000001</v>
+      </c>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="12">
+        <v>27.57</v>
+      </c>
+      <c r="D31" s="12">
+        <v>300.64</v>
+      </c>
+      <c r="E31" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F31" s="12">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G31" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H31" s="12">
+        <v>29</v>
+      </c>
+      <c r="I31" s="12">
+        <v>3.2084887500000002E-4</v>
+      </c>
+      <c r="J31" s="12">
+        <v>320.84887500000002</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12">
+        <v>320.84887500000002</v>
+      </c>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="12">
+        <v>28.29</v>
+      </c>
+      <c r="D32" s="12">
+        <v>300.64</v>
+      </c>
+      <c r="E32" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F32" s="12">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G32" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H32" s="12">
+        <v>84</v>
+      </c>
+      <c r="I32" s="12">
+        <v>9.2935536189999997E-4</v>
+      </c>
+      <c r="J32" s="12">
+        <v>929.35536190000005</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12">
+        <v>929.35536190000005</v>
+      </c>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="12">
+        <v>28.88</v>
+      </c>
+      <c r="D33" s="12">
+        <v>300.64</v>
+      </c>
+      <c r="E33" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F33" s="12">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G33" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H33" s="12">
+        <v>74</v>
+      </c>
+      <c r="I33" s="12">
+        <v>8.1871781889999995E-4</v>
+      </c>
+      <c r="J33" s="12">
+        <v>818.7178189</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" s="12">
+        <v>818.7178189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="12">
+        <v>29.13</v>
+      </c>
+      <c r="D34" s="12">
+        <v>300.64</v>
+      </c>
+      <c r="E34" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F34" s="12">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G34" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H34" s="12">
+        <v>199</v>
+      </c>
+      <c r="I34" s="12">
+        <v>2.2016871069999999E-3</v>
+      </c>
+      <c r="J34" s="12">
+        <v>2201.6871070000002</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" s="12">
+        <v>2201.6871070000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="12">
+        <v>29.37</v>
+      </c>
+      <c r="D35" s="12">
+        <v>300.64</v>
+      </c>
+      <c r="E35" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F35" s="12">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G35" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H35" s="12">
+        <v>39</v>
+      </c>
+      <c r="I35" s="12">
+        <v>4.3148641799999998E-4</v>
+      </c>
+      <c r="J35" s="12">
+        <v>431.48641800000001</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O35" s="12">
+        <v>431.48641800000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="11">
+        <v>31.47</v>
+      </c>
+      <c r="D36" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="E36" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F36" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G36" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H36" s="11">
+        <v>129</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1.427224306E-3</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1427.2243060000001</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O36" s="11">
+        <v>1427.2243060000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="11">
+        <v>32.42</v>
+      </c>
+      <c r="D37" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="E37" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F37" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G37" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H37" s="11">
+        <v>203</v>
+      </c>
+      <c r="I37" s="11">
+        <v>2.2459421249999998E-3</v>
+      </c>
+      <c r="J37" s="11">
+        <v>2245.942125</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="O37" s="11">
+        <v>2245.942125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="12">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D38" s="12">
+        <v>300.64</v>
+      </c>
+      <c r="E38" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F38" s="12">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G38" s="12">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H38" s="12">
+        <v>53</v>
+      </c>
+      <c r="I38" s="12">
+        <v>5.8637897840000004E-4</v>
+      </c>
+      <c r="J38" s="12">
+        <v>586.37897840000005</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="O38" s="12">
+        <v>586.37897840000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="11">
+        <v>34</v>
+      </c>
+      <c r="D39" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="E39" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="F39" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="G39" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="H39" s="11">
+        <v>131</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1.449351814E-3</v>
+      </c>
+      <c r="J39" s="11">
+        <v>1449.3518140000001</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O39" s="11">
+        <v>1449.3518140000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="45.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="11">
+        <v>30.15</v>
+      </c>
+      <c r="F2" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G2" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H2" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I2" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11">
+        <v>1172.757957</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="11">
+        <v>30.77</v>
+      </c>
+      <c r="F3" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G3" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H3" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I3" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11">
+        <v>979.14225629999999</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="11">
+        <v>30.85</v>
+      </c>
+      <c r="F4" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G4" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H4" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I4" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11">
+        <v>1344.2461490000001</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="11">
+        <v>31.62</v>
+      </c>
+      <c r="F5" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G5" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H5" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I5" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11">
+        <v>1488.074955</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="11">
+        <v>32.06</v>
+      </c>
+      <c r="F6" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G6" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H6" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I6" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11">
+        <v>757.86717020000003</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="11">
+        <v>32.4</v>
+      </c>
+      <c r="F7" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G7" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H7" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I7" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11">
+        <v>564.2514698</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="11">
+        <v>34.4</v>
+      </c>
+      <c r="F8" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G8" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H8" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I8" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11">
+        <v>1357.1538619999999</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="11">
+        <v>31.68</v>
+      </c>
+      <c r="F9" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G9" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H9" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I9" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11">
+        <v>1296.6720049999999</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="11">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G10" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H10" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I10" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>7.1914403009999998E-4</v>
+      </c>
+      <c r="R10" s="11">
+        <v>719.14403010000001</v>
+      </c>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="11">
+        <v>27.57</v>
+      </c>
+      <c r="F11" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G11" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H11" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I11" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>3.2084887500000002E-4</v>
+      </c>
+      <c r="R11" s="11">
+        <v>320.84887500000002</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="11">
+        <v>28.29</v>
+      </c>
+      <c r="F12" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G12" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H12" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I12" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>9.2935536189999997E-4</v>
+      </c>
+      <c r="R12" s="11">
+        <v>929.35536190000005</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="11">
+        <v>28.88</v>
+      </c>
+      <c r="F13" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G13" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H13" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I13" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>8.1871781889999995E-4</v>
+      </c>
+      <c r="R13" s="11">
+        <v>818.7178189</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="11">
+        <v>29.13</v>
+      </c>
+      <c r="F14" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G14" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H14" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I14" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J14" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>2.2016871069999999E-3</v>
+      </c>
+      <c r="R14" s="11">
+        <v>2201.6871070000002</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="11">
+        <v>29.37</v>
+      </c>
+      <c r="F15" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G15" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H15" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I15" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>4.3148641799999998E-4</v>
+      </c>
+      <c r="R15" s="11">
+        <v>431.48641800000001</v>
+      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="11">
+        <v>31.47</v>
+      </c>
+      <c r="F16" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G16" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H16" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I16" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>1.427224306E-3</v>
+      </c>
+      <c r="R16" s="11">
+        <v>1427.2243060000001</v>
+      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="11">
+        <v>32.42</v>
+      </c>
+      <c r="F17" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G17" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H17" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I17" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>2.2459421249999998E-3</v>
+      </c>
+      <c r="R17" s="11">
+        <v>2245.942125</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="11">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F18" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G18" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H18" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I18" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J18" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>5.8637897840000004E-4</v>
+      </c>
+      <c r="R18" s="11">
+        <v>586.37897840000005</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="11">
+        <v>34</v>
+      </c>
+      <c r="F19" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="G19" s="11">
+        <v>300.64</v>
+      </c>
+      <c r="H19" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="I19" s="11">
+        <v>9.0385231999999996E-2</v>
+      </c>
+      <c r="J19" s="11">
+        <v>90385.232000000004</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>1.449351814E-3</v>
+      </c>
+      <c r="R19" s="11">
+        <v>1449.3518140000001</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="9">
+        <v>32.4</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2.2853880630000001</v>
+      </c>
+      <c r="G2" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1050</v>
+      </c>
+      <c r="I2" s="9">
+        <v>4.594405726E-4</v>
+      </c>
+      <c r="J2" s="9">
+        <v>459.4405726</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="9">
+        <v>81</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O2" s="9">
+        <v>900</v>
+      </c>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="9">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.2853880630000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1859</v>
+      </c>
+      <c r="I3" s="9">
+        <v>8.1342859470000001E-4</v>
+      </c>
+      <c r="J3" s="9">
+        <v>813.42859469999996</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="9">
+        <v>120</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1333.333333</v>
+      </c>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="9">
+        <v>30.5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G4" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="H4" s="9">
+        <v>371</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5.8626442500000001E-4</v>
+      </c>
+      <c r="J4" s="9">
+        <v>586.26442499999996</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="9">
+        <v>59</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O4" s="9">
+        <v>655.55555560000005</v>
+      </c>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.2853880630000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>853</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3.7324076989999998E-4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>373.24076989999998</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="9">
+        <v>42</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O5" s="9">
+        <v>466.66666670000001</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G6" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H6" s="7">
+        <v>392</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6.1944920379999999E-4</v>
+      </c>
+      <c r="J6" s="7">
+        <v>619.44920379999996</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="7">
+        <v>72</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O6" s="9">
+        <v>800</v>
+      </c>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="7">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2672527</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2.6725270000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3368194.1179999998</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2444</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9.1449029329999996E-4</v>
+      </c>
+      <c r="J7" s="7">
+        <v>914.49029329999996</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="7">
+        <v>62</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O7" s="9">
+        <v>688.88888889999998</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2168121</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.1681210000000002</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1962</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9.0493104400000003E-4</v>
+      </c>
+      <c r="J8" s="7">
+        <v>904.93104400000004</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7">
+        <v>156</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1733.333333</v>
+      </c>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7">
+        <v>27.13</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G9" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H9" s="7">
+        <v>481</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7.6008945670000001E-4</v>
+      </c>
+      <c r="J9" s="7">
+        <v>760.08945670000003</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="7">
+        <v>195</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2166.666667</v>
+      </c>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7">
+        <v>30.98</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G10" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>236.5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3.7372381809999998E-4</v>
+      </c>
+      <c r="J10" s="7">
+        <v>373.72381810000002</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="7">
+        <v>68</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O10" s="9">
+        <v>755.55555560000005</v>
+      </c>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="9">
+        <v>25.84</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2.2853880630000001</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1159</v>
+      </c>
+      <c r="I11" s="9">
+        <v>5.0713487959999995E-4</v>
+      </c>
+      <c r="J11" s="9">
+        <v>507.13487959999998</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="9">
+        <v>122</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1355.555556</v>
+      </c>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="9">
+        <v>26.62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G12" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="H12" s="9">
+        <v>493.5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>7.7984230120000005E-4</v>
+      </c>
+      <c r="J12" s="9">
+        <v>779.84230119999995</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="9">
+        <v>146</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1622.2222220000001</v>
+      </c>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="9">
+        <v>27.71</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1909554.51</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.90955451</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2285388.0630000001</v>
+      </c>
+      <c r="H13" s="9">
+        <v>805</v>
+      </c>
+      <c r="I13" s="9">
+        <v>4.2156429460000003E-4</v>
+      </c>
+      <c r="J13" s="9">
+        <v>421.56429459999998</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="9">
+        <v>77</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O13" s="9">
+        <v>855.55555560000005</v>
+      </c>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="7">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G14" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H14" s="7">
+        <v>358</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5.6572146669999998E-4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>565.72146669999995</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="7">
+        <v>71</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O14" s="9">
+        <v>788.88888889999998</v>
+      </c>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1202597.125</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.202597125</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1202597.125</v>
+      </c>
+      <c r="H15" s="7">
+        <v>963</v>
+      </c>
+      <c r="I15" s="7">
+        <v>8.0076692349999995E-4</v>
+      </c>
+      <c r="J15" s="7">
+        <v>800.76692349999996</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="7">
+        <v>135</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1500</v>
+      </c>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="9">
+        <v>28</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2172626.12</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2.1726261199999999</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2285388.1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>800</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3.6821797940000001E-4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>368.21797939999999</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="9">
+        <v>90</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="9">
+        <v>30.71</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G17" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="H17" s="9">
+        <v>427.25</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6.7515222529999995E-4</v>
+      </c>
+      <c r="J17" s="9">
+        <v>675.15222530000005</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="9">
+        <v>98</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1088.8888890000001</v>
+      </c>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="9">
+        <v>26.9</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G18" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="H18" s="9">
+        <v>356.25</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5.6295606850000003E-4</v>
+      </c>
+      <c r="J18" s="9">
+        <v>562.95606850000001</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>60</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O18" s="9">
+        <v>666.66666669999995</v>
+      </c>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="7">
+        <v>25.76</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G19" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H19" s="7">
+        <v>692.75</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1.0947026429999999E-3</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1094.7026430000001</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>65</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O19" s="9">
+        <v>722.22222220000003</v>
+      </c>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="7">
+        <v>32.18</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G20" s="7">
+        <v>632820.25</v>
+      </c>
+      <c r="H20" s="7">
+        <v>413</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6.5263398259999997E-4</v>
+      </c>
+      <c r="J20" s="7">
+        <v>652.63398259999997</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>77</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O20" s="9">
+        <v>855.55555560000005</v>
+      </c>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="9">
+        <v>26.76</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.63282024999999997</v>
+      </c>
+      <c r="G21" s="9">
+        <v>632820.25</v>
+      </c>
+      <c r="H21" s="9">
+        <v>313</v>
+      </c>
+      <c r="I21" s="9">
+        <v>4.9461122650000001E-4</v>
+      </c>
+      <c r="J21" s="9">
+        <v>494.61122649999999</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>47</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="O21" s="9">
+        <v>522.22222220000003</v>
+      </c>
+      <c r="P21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
